--- a/templates/transactions/test.xlsx
+++ b/templates/transactions/test.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,6 +679,54 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Cash To Mustafa</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>77000</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MZN</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>156777</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Cash To Mustafa</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>money transfer to xyz</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/transactions/test.xlsx
+++ b/templates/transactions/test.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>77000</v>
+        <v>1000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -508,25 +508,25 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>MZN</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>2</v>
       </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>156777</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Cash To Mustafa</t>
+          <t>Clearance</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -537,44 +537,44 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Cash To Mustafa</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>950</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MZN</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>950</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>MZN</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Cash To Mustafa</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>77000</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MZN</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>156777</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Cash To Mustafa</t>
+          <t>Clearance</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -585,7 +585,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>77000</v>
+        <v>999</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -604,25 +604,25 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>999</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>MZN</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v>2</v>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>156777</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Cash To Mustafa</t>
+          <t>Clearance</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -633,18 +633,18 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cash To Mustafa</t>
+          <t>Clearance</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>77000</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -652,17 +652,17 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>156777</v>
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>MZN</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -681,47 +681,95 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Clearance</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>888</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MZN</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4440</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Cash To Mustafa</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>77000</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MZN</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>money transfer to xyz</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Cash To Mustafa</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>55</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>605</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v>2</v>
       </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>156777</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Cash To Mustafa</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Clearance</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>money transfer to xyz</t>
         </is>
